--- a/master/ig/StructureDefinition-copy-number.xlsx
+++ b/master/ig/StructureDefinition-copy-number.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T14:32:00+00:00</t>
+    <t>2024-03-21T14:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
